--- a/Python/Data/Final/pancreas.xlsx
+++ b/Python/Data/Final/pancreas.xlsx
@@ -7,24 +7,22 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="AZ_missing_cts" sheetId="1" r:id="rId1"/>
+    <sheet name="Az_missing_cts" sheetId="1" r:id="rId1"/>
     <sheet name="Asctb_missing_cts" sheetId="2" r:id="rId2"/>
-    <sheet name="AZ_incorrect_cts" sheetId="3" r:id="rId3"/>
-    <sheet name="Asctb_incorrect_cts" sheetId="4" r:id="rId4"/>
-    <sheet name="AZ_ASCTB_Cts_perfect_matches" sheetId="5" r:id="rId5"/>
-    <sheet name="AZ_cts_not_found_in_ebi" sheetId="6" r:id="rId6"/>
-    <sheet name="Asctb_cts_not_found_in_ebi" sheetId="7" r:id="rId7"/>
-    <sheet name="AZ_mismatches_summary" sheetId="8" r:id="rId8"/>
-    <sheet name="Asctb_mismatches_summary" sheetId="9" r:id="rId9"/>
-    <sheet name="Asctb_cts_mismatch_final" sheetId="10" r:id="rId10"/>
-    <sheet name="AZ_cts_mismatch_final" sheetId="11" r:id="rId11"/>
+    <sheet name="Az_Asctb_cts_perfect_matches" sheetId="3" r:id="rId3"/>
+    <sheet name="Az_incorrect_cts" sheetId="4" r:id="rId4"/>
+    <sheet name="Asctb_incorrect_cts" sheetId="5" r:id="rId5"/>
+    <sheet name="Az_match_tree_corsswalk" sheetId="6" r:id="rId6"/>
+    <sheet name="Asctb_match_tree_corsswalk" sheetId="7" r:id="rId7"/>
+    <sheet name="Asctb_cts_mismatch_final" sheetId="8" r:id="rId8"/>
+    <sheet name="Az_cts_mismatch_final" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="90">
   <si>
     <t>CT/ID</t>
   </si>
@@ -670,168 +668,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
@@ -855,18 +691,150 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -897,159 +865,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1069,28 +884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1195,7 +989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -1620,4 +1414,166 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Python/Data/Final/pancreas.xlsx
+++ b/Python/Data/Final/pancreas.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="138">
   <si>
     <t>CT/ID</t>
   </si>
@@ -30,18 +30,27 @@
     <t>CT/LABEL</t>
   </si>
   <si>
+    <t>CT/LABEL.Author</t>
+  </si>
+  <si>
     <t>AZ.CT/ID</t>
   </si>
   <si>
     <t>AZ.CT/LABEL</t>
   </si>
   <si>
+    <t>AZ.CT/LABEL.Author</t>
+  </si>
+  <si>
     <t>ASCTB.CT/ID</t>
   </si>
   <si>
     <t>ASCTB.CT/LABEL</t>
   </si>
   <si>
+    <t>ASCTB.CT/LABEL.Author</t>
+  </si>
+  <si>
     <t>CL:0008024</t>
   </si>
   <si>
@@ -96,6 +105,81 @@
     <t>pancreatic A cell</t>
   </si>
   <si>
+    <t>cycling</t>
+  </si>
+  <si>
+    <t>quiescent_stellate</t>
+  </si>
+  <si>
+    <t>activated_stellate</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>ductal</t>
+  </si>
+  <si>
+    <t>acinar</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>Endocrine cell</t>
+  </si>
+  <si>
+    <t>Pancreatic stellate cell</t>
+  </si>
+  <si>
+    <t>Epsilon cell</t>
+  </si>
+  <si>
+    <t>PP cell</t>
+  </si>
+  <si>
+    <t>Delta cell</t>
+  </si>
+  <si>
+    <t>Ductal cell</t>
+  </si>
+  <si>
+    <t>Acinar cell</t>
+  </si>
+  <si>
+    <t>Beta cell</t>
+  </si>
+  <si>
+    <t>Alpha cell</t>
+  </si>
+  <si>
+    <t>Low columnar epithelial cell</t>
+  </si>
+  <si>
+    <t>Nonmucinous cuboidal epithelial cell</t>
+  </si>
+  <si>
+    <t>Flat epithelial cells</t>
+  </si>
+  <si>
+    <t>Tall columnar epithelial cell</t>
+  </si>
+  <si>
+    <t>Activated stellate cell</t>
+  </si>
+  <si>
+    <t>Quiescent stellate cell</t>
+  </si>
+  <si>
     <t>Match Found</t>
   </si>
   <si>
@@ -123,6 +207,15 @@
     <t>Schwann cell</t>
   </si>
   <si>
+    <t>immune</t>
+  </si>
+  <si>
+    <t>endothelial</t>
+  </si>
+  <si>
+    <t>schwann</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -238,6 +331,57 @@
   </si>
   <si>
     <t>simple columnar epithelial cell</t>
+  </si>
+  <si>
+    <t>Pancreas exocrine glandular cell</t>
+  </si>
+  <si>
+    <t>Smooth muscle cell</t>
+  </si>
+  <si>
+    <t>Lymphocyte</t>
+  </si>
+  <si>
+    <t>Macrophage</t>
+  </si>
+  <si>
+    <t>Dendritic cell</t>
+  </si>
+  <si>
+    <t>Stromal cell</t>
+  </si>
+  <si>
+    <t>Adipocyte</t>
+  </si>
+  <si>
+    <t>Ductal epithelial cell</t>
+  </si>
+  <si>
+    <t>Centroacinar cell</t>
+  </si>
+  <si>
+    <t>Pancreatic goblet cell</t>
+  </si>
+  <si>
+    <t>Tuft cell</t>
+  </si>
+  <si>
+    <t>Enterochromaffin cell?</t>
+  </si>
+  <si>
+    <t>B lymphocyte</t>
+  </si>
+  <si>
+    <t>T lymphocyte</t>
+  </si>
+  <si>
+    <t>Gastrin cell</t>
+  </si>
+  <si>
+    <t>Fibroblast</t>
+  </si>
+  <si>
+    <t>Simple columnar epithelial cell</t>
   </si>
   <si>
     <t>Yes</t>
@@ -649,18 +793,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -670,18 +817,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -691,150 +841,230 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -844,18 +1074,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -865,18 +1098,51 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -886,102 +1152,114 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
-        <v>37</v>
+      <c r="H4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -991,424 +1269,478 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>53</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2">
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="H10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
         <v>58</v>
       </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8">
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15">
         <v>4</v>
       </c>
-      <c r="G8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9">
+      <c r="H15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16">
         <v>5</v>
       </c>
-      <c r="G9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="H16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
         <v>64</v>
       </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12">
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18">
         <v>5</v>
       </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
-      <c r="G13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="G18" t="s">
-        <v>89</v>
+      <c r="H18" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1418,114 +1750,153 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>93</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>94</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>97</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1535,42 +1906,54 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Data/Final/pancreas.xlsx
+++ b/Python/Data/Final/pancreas.xlsx
@@ -14,13 +14,14 @@
     <sheet name="Asctb_match_tree_crosswalk" sheetId="5" r:id="rId5"/>
     <sheet name="Az_cts_mismatch_final" sheetId="6" r:id="rId6"/>
     <sheet name="Asctb_cts_mismatch_final" sheetId="7" r:id="rId7"/>
+    <sheet name="Final_Matches" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="120">
   <si>
     <t>AZ.CT/ID</t>
   </si>
@@ -1454,4 +1455,137 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Python/Data/Final/pancreas.xlsx
+++ b/Python/Data/Final/pancreas.xlsx
@@ -7,21 +7,32 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Az_Asctb_cts_perfect_matches" sheetId="1" r:id="rId1"/>
-    <sheet name="Az_incorrect_cts" sheetId="2" r:id="rId2"/>
-    <sheet name="Asctb_incorrect_cts" sheetId="3" r:id="rId3"/>
-    <sheet name="Az_match_tree_crosswalk" sheetId="4" r:id="rId4"/>
-    <sheet name="Asctb_match_tree_crosswalk" sheetId="5" r:id="rId5"/>
-    <sheet name="Az_cts_mismatch_final" sheetId="6" r:id="rId6"/>
-    <sheet name="Asctb_cts_mismatch_final" sheetId="7" r:id="rId7"/>
-    <sheet name="Final_Matches" sheetId="8" r:id="rId8"/>
+    <sheet name="Az_missing_cts" sheetId="1" r:id="rId1"/>
+    <sheet name="Asctb_missing_cts" sheetId="2" r:id="rId2"/>
+    <sheet name="Az_Asctb_cts_perfect_matches" sheetId="3" r:id="rId3"/>
+    <sheet name="Az_incorrect_cts" sheetId="4" r:id="rId4"/>
+    <sheet name="Asctb_incorrect_cts" sheetId="5" r:id="rId5"/>
+    <sheet name="Az_match_tree_crosswalk" sheetId="6" r:id="rId6"/>
+    <sheet name="Asctb_match_tree_crosswalk" sheetId="7" r:id="rId7"/>
+    <sheet name="Az_cts_mismatch_final" sheetId="8" r:id="rId8"/>
+    <sheet name="Asctb_cts_mismatch_final" sheetId="9" r:id="rId9"/>
+    <sheet name="Final_Matches" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="114">
+  <si>
+    <t>CT/ID</t>
+  </si>
+  <si>
+    <t>CT/LABEL</t>
+  </si>
+  <si>
+    <t>CT/LABEL.Author</t>
+  </si>
   <si>
     <t>AZ.CT/ID</t>
   </si>
@@ -150,33 +161,6 @@
   </si>
   <si>
     <t>Endocrine cell</t>
-  </si>
-  <si>
-    <t>CT/ID</t>
-  </si>
-  <si>
-    <t>CT/LABEL</t>
-  </si>
-  <si>
-    <t>CT/LABEL.Author</t>
-  </si>
-  <si>
-    <t>Low columnar epithelial cell</t>
-  </si>
-  <si>
-    <t>Nonmucinous cuboidal epithelial cell</t>
-  </si>
-  <si>
-    <t>Flat epithelial cells</t>
-  </si>
-  <si>
-    <t>Tall columnar epithelial cell</t>
-  </si>
-  <si>
-    <t>Activated stellate cell</t>
-  </si>
-  <si>
-    <t>Quiescent stellate cell</t>
   </si>
   <si>
     <t>Match Found</t>
@@ -738,13 +722,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,214 +738,138 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
       <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>42</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -979,13 +887,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -995,7 +903,240 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1003,43 +1144,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="C6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="C7" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1047,7 +1158,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -1057,28 +1192,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +1221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
@@ -1096,158 +1231,158 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
         <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" t="s">
-        <v>70</v>
-      </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1255,7 +1390,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1265,35 +1400,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1301,7 +1436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C13"/>
   <sheetViews>
@@ -1311,278 +1446,145 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
